--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Gal-Gpr151.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Gal-Gpr151.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.31309001461423</v>
+        <v>1.642758</v>
       </c>
       <c r="H2">
-        <v>1.31309001461423</v>
+        <v>4.928274</v>
       </c>
       <c r="I2">
-        <v>0.1000588795262016</v>
+        <v>0.08311198773343359</v>
       </c>
       <c r="J2">
-        <v>0.1000588795262016</v>
+        <v>0.08311198773343359</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.262282143684875</v>
+        <v>0.271848</v>
       </c>
       <c r="N2">
-        <v>0.262282143684875</v>
+        <v>0.815544</v>
       </c>
       <c r="O2">
-        <v>0.1354500333372301</v>
+        <v>0.1256018707893687</v>
       </c>
       <c r="P2">
-        <v>0.1354500333372301</v>
+        <v>0.1256018707893686</v>
       </c>
       <c r="Q2">
-        <v>0.3444000638842241</v>
+        <v>0.446580476784</v>
       </c>
       <c r="R2">
-        <v>0.3444000638842241</v>
+        <v>4.019224291056</v>
       </c>
       <c r="S2">
-        <v>0.0135529785675099</v>
+        <v>0.01043902114434232</v>
       </c>
       <c r="T2">
-        <v>0.0135529785675099</v>
+        <v>0.01043902114434232</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.31309001461423</v>
+        <v>1.642758</v>
       </c>
       <c r="H3">
-        <v>1.31309001461423</v>
+        <v>4.928274</v>
       </c>
       <c r="I3">
-        <v>0.1000588795262016</v>
+        <v>0.08311198773343359</v>
       </c>
       <c r="J3">
-        <v>0.1000588795262016</v>
+        <v>0.08311198773343359</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.513626015896412</v>
+        <v>0.5236423333333333</v>
       </c>
       <c r="N3">
-        <v>0.513626015896412</v>
+        <v>1.570927</v>
       </c>
       <c r="O3">
-        <v>0.2652512290719454</v>
+        <v>0.2419383504428094</v>
       </c>
       <c r="P3">
-        <v>0.2652512290719454</v>
+        <v>0.2419383504428093</v>
       </c>
       <c r="Q3">
-        <v>0.6744371927196683</v>
+        <v>0.860217632222</v>
       </c>
       <c r="R3">
-        <v>0.6744371927196683</v>
+        <v>7.741958689998</v>
       </c>
       <c r="S3">
-        <v>0.02654074077388669</v>
+        <v>0.02010797721424993</v>
       </c>
       <c r="T3">
-        <v>0.02654074077388669</v>
+        <v>0.02010797721424993</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.31309001461423</v>
+        <v>1.642758</v>
       </c>
       <c r="H4">
-        <v>1.31309001461423</v>
+        <v>4.928274</v>
       </c>
       <c r="I4">
-        <v>0.1000588795262016</v>
+        <v>0.08311198773343359</v>
       </c>
       <c r="J4">
-        <v>0.1000588795262016</v>
+        <v>0.08311198773343359</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.204676241634358</v>
+        <v>0.323177</v>
       </c>
       <c r="N4">
-        <v>0.204676241634358</v>
+        <v>0.9695309999999999</v>
       </c>
       <c r="O4">
-        <v>0.1057006907264784</v>
+        <v>0.1493173972076152</v>
       </c>
       <c r="P4">
-        <v>0.1057006907264784</v>
+        <v>0.1493173972076152</v>
       </c>
       <c r="Q4">
-        <v>0.2687583291188448</v>
+        <v>0.530901602166</v>
       </c>
       <c r="R4">
-        <v>0.2687583291188448</v>
+        <v>4.778114419494</v>
       </c>
       <c r="S4">
-        <v>0.010576292679237</v>
+        <v>0.01241006568510755</v>
       </c>
       <c r="T4">
-        <v>0.010576292679237</v>
+        <v>0.01241006568510755</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.31309001461423</v>
+        <v>1.642758</v>
       </c>
       <c r="H5">
-        <v>1.31309001461423</v>
+        <v>4.928274</v>
       </c>
       <c r="I5">
-        <v>0.1000588795262016</v>
+        <v>0.08311198773343359</v>
       </c>
       <c r="J5">
-        <v>0.1000588795262016</v>
+        <v>0.08311198773343359</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.955791229138545</v>
+        <v>1.045695333333333</v>
       </c>
       <c r="N5">
-        <v>0.955791229138545</v>
+        <v>3.137086</v>
       </c>
       <c r="O5">
-        <v>0.4935980468643459</v>
+        <v>0.4831423815602068</v>
       </c>
       <c r="P5">
-        <v>0.4935980468643459</v>
+        <v>0.4831423815602067</v>
       </c>
       <c r="Q5">
-        <v>1.255039919037685</v>
+        <v>1.717824374396</v>
       </c>
       <c r="R5">
-        <v>1.255039919037685</v>
+        <v>15.460419369564</v>
       </c>
       <c r="S5">
-        <v>0.049388867505568</v>
+        <v>0.0401549236897338</v>
       </c>
       <c r="T5">
-        <v>0.049388867505568</v>
+        <v>0.04015492368973379</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>11.8100832692759</v>
+        <v>0.4045783333333333</v>
       </c>
       <c r="H6">
-        <v>11.8100832692759</v>
+        <v>1.213735</v>
       </c>
       <c r="I6">
-        <v>0.8999411204737984</v>
+        <v>0.02046881493026545</v>
       </c>
       <c r="J6">
-        <v>0.8999411204737984</v>
+        <v>0.02046881493026545</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.262282143684875</v>
+        <v>0.271848</v>
       </c>
       <c r="N6">
-        <v>0.262282143684875</v>
+        <v>0.815544</v>
       </c>
       <c r="O6">
-        <v>0.1354500333372301</v>
+        <v>0.1256018707893687</v>
       </c>
       <c r="P6">
-        <v>0.1354500333372301</v>
+        <v>0.1256018707893686</v>
       </c>
       <c r="Q6">
-        <v>3.09757395696256</v>
+        <v>0.10998381076</v>
       </c>
       <c r="R6">
-        <v>3.09757395696256</v>
+        <v>0.98985429684</v>
       </c>
       <c r="S6">
-        <v>0.1218970547697202</v>
+        <v>0.002570921448082701</v>
       </c>
       <c r="T6">
-        <v>0.1218970547697202</v>
+        <v>0.0025709214480827</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>11.8100832692759</v>
+        <v>0.4045783333333333</v>
       </c>
       <c r="H7">
-        <v>11.8100832692759</v>
+        <v>1.213735</v>
       </c>
       <c r="I7">
-        <v>0.8999411204737984</v>
+        <v>0.02046881493026545</v>
       </c>
       <c r="J7">
-        <v>0.8999411204737984</v>
+        <v>0.02046881493026545</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.513626015896412</v>
+        <v>0.5236423333333333</v>
       </c>
       <c r="N7">
-        <v>0.513626015896412</v>
+        <v>1.570927</v>
       </c>
       <c r="O7">
-        <v>0.2652512290719454</v>
+        <v>0.2419383504428094</v>
       </c>
       <c r="P7">
-        <v>0.2652512290719454</v>
+        <v>0.2419383504428093</v>
       </c>
       <c r="Q7">
-        <v>6.065966017003053</v>
+        <v>0.2118543424827778</v>
       </c>
       <c r="R7">
-        <v>6.065966017003053</v>
+        <v>1.906689082345</v>
       </c>
       <c r="S7">
-        <v>0.2387104882980587</v>
+        <v>0.00495219131974757</v>
       </c>
       <c r="T7">
-        <v>0.2387104882980587</v>
+        <v>0.004952191319747569</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>11.8100832692759</v>
+        <v>0.4045783333333333</v>
       </c>
       <c r="H8">
-        <v>11.8100832692759</v>
+        <v>1.213735</v>
       </c>
       <c r="I8">
-        <v>0.8999411204737984</v>
+        <v>0.02046881493026545</v>
       </c>
       <c r="J8">
-        <v>0.8999411204737984</v>
+        <v>0.02046881493026545</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.204676241634358</v>
+        <v>0.323177</v>
       </c>
       <c r="N8">
-        <v>0.204676241634358</v>
+        <v>0.9695309999999999</v>
       </c>
       <c r="O8">
-        <v>0.1057006907264784</v>
+        <v>0.1493173972076152</v>
       </c>
       <c r="P8">
-        <v>0.1057006907264784</v>
+        <v>0.1493173972076152</v>
       </c>
       <c r="Q8">
-        <v>2.417243456944203</v>
+        <v>0.1307504120316667</v>
       </c>
       <c r="R8">
-        <v>2.417243456944203</v>
+        <v>1.176753708285</v>
       </c>
       <c r="S8">
-        <v>0.09512439804724145</v>
+        <v>0.003056350169311611</v>
       </c>
       <c r="T8">
-        <v>0.09512439804724145</v>
+        <v>0.003056350169311611</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.4045783333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.213735</v>
+      </c>
+      <c r="I9">
+        <v>0.02046881493026545</v>
+      </c>
+      <c r="J9">
+        <v>0.02046881493026545</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.045695333333333</v>
+      </c>
+      <c r="N9">
+        <v>3.137086</v>
+      </c>
+      <c r="O9">
+        <v>0.4831423815602068</v>
+      </c>
+      <c r="P9">
+        <v>0.4831423815602067</v>
+      </c>
+      <c r="Q9">
+        <v>0.4230656751344444</v>
+      </c>
+      <c r="R9">
+        <v>3.80759107621</v>
+      </c>
+      <c r="S9">
+        <v>0.009889351993123565</v>
+      </c>
+      <c r="T9">
+        <v>0.009889351993123564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>17.71826</v>
+      </c>
+      <c r="H10">
+        <v>53.15478</v>
+      </c>
+      <c r="I10">
+        <v>0.8964191973363009</v>
+      </c>
+      <c r="J10">
+        <v>0.8964191973363009</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.271848</v>
+      </c>
+      <c r="N10">
+        <v>0.815544</v>
+      </c>
+      <c r="O10">
+        <v>0.1256018707893687</v>
+      </c>
+      <c r="P10">
+        <v>0.1256018707893686</v>
+      </c>
+      <c r="Q10">
+        <v>4.81667354448</v>
+      </c>
+      <c r="R10">
+        <v>43.35006190032001</v>
+      </c>
+      <c r="S10">
+        <v>0.1125919281969436</v>
+      </c>
+      <c r="T10">
+        <v>0.1125919281969436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>17.71826</v>
+      </c>
+      <c r="H11">
+        <v>53.15478</v>
+      </c>
+      <c r="I11">
+        <v>0.8964191973363009</v>
+      </c>
+      <c r="J11">
+        <v>0.8964191973363009</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.5236423333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.570927</v>
+      </c>
+      <c r="O11">
+        <v>0.2419383504428094</v>
+      </c>
+      <c r="P11">
+        <v>0.2419383504428093</v>
+      </c>
+      <c r="Q11">
+        <v>9.278031009006666</v>
+      </c>
+      <c r="R11">
+        <v>83.50227908106</v>
+      </c>
+      <c r="S11">
+        <v>0.2168781819088119</v>
+      </c>
+      <c r="T11">
+        <v>0.2168781819088118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>11.8100832692759</v>
-      </c>
-      <c r="H9">
-        <v>11.8100832692759</v>
-      </c>
-      <c r="I9">
-        <v>0.8999411204737984</v>
-      </c>
-      <c r="J9">
-        <v>0.8999411204737984</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.955791229138545</v>
-      </c>
-      <c r="N9">
-        <v>0.955791229138545</v>
-      </c>
-      <c r="O9">
-        <v>0.4935980468643459</v>
-      </c>
-      <c r="P9">
-        <v>0.4935980468643459</v>
-      </c>
-      <c r="Q9">
-        <v>11.28797400416978</v>
-      </c>
-      <c r="R9">
-        <v>11.28797400416978</v>
-      </c>
-      <c r="S9">
-        <v>0.4442091793587779</v>
-      </c>
-      <c r="T9">
-        <v>0.4442091793587779</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>17.71826</v>
+      </c>
+      <c r="H12">
+        <v>53.15478</v>
+      </c>
+      <c r="I12">
+        <v>0.8964191973363009</v>
+      </c>
+      <c r="J12">
+        <v>0.8964191973363009</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.323177</v>
+      </c>
+      <c r="N12">
+        <v>0.9695309999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.1493173972076152</v>
+      </c>
+      <c r="P12">
+        <v>0.1493173972076152</v>
+      </c>
+      <c r="Q12">
+        <v>5.72613411202</v>
+      </c>
+      <c r="R12">
+        <v>51.53520700818</v>
+      </c>
+      <c r="S12">
+        <v>0.1338509813531961</v>
+      </c>
+      <c r="T12">
+        <v>0.1338509813531961</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>17.71826</v>
+      </c>
+      <c r="H13">
+        <v>53.15478</v>
+      </c>
+      <c r="I13">
+        <v>0.8964191973363009</v>
+      </c>
+      <c r="J13">
+        <v>0.8964191973363009</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.045695333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.137086</v>
+      </c>
+      <c r="O13">
+        <v>0.4831423815602068</v>
+      </c>
+      <c r="P13">
+        <v>0.4831423815602067</v>
+      </c>
+      <c r="Q13">
+        <v>18.52790179678667</v>
+      </c>
+      <c r="R13">
+        <v>166.75111617108</v>
+      </c>
+      <c r="S13">
+        <v>0.4330981058773494</v>
+      </c>
+      <c r="T13">
+        <v>0.4330981058773494</v>
       </c>
     </row>
   </sheetData>
